--- a/UK_CoP_TitleLists/PeerCommunityJournal_Open_scifreeimport.xlsx
+++ b/UK_CoP_TitleLists/PeerCommunityJournal_Open_scifreeimport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://computingservices-my.sharepoint.com/personal/lc2792_bath_ac_uk/Documents/Documents/SciFree/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d4b02a2393526de/Documents/CoP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C80C0B53-900B-409E-A52D-EBF31DA4FCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C80C0B53-900B-409E-A52D-EBF31DA4FCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4491A276-C9B2-4D41-89E6-4DD627793126}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BE44926E-75A4-4EDC-A463-0127E7F3749D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BE44926E-75A4-4EDC-A463-0127E7F3749D}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal List" sheetId="1" r:id="rId1"/>
@@ -172,9 +172,6 @@
     <t>2804-3871</t>
   </si>
   <si>
-    <t>Peer Communinity IN</t>
-  </si>
-  <si>
     <t>https://peercommunityjournal.org/page/about/#support</t>
   </si>
   <si>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>CC BY</t>
+  </si>
+  <si>
+    <t>Peer Community in</t>
   </si>
 </sst>
 </file>
@@ -431,88 +431,88 @@
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1931,7 +1931,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1978,20 +1978,20 @@
         <v>42</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="H2" s="34"/>
     </row>
